--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H2">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.669579</v>
+        <v>2.761510666666667</v>
       </c>
       <c r="N2">
-        <v>38.008737</v>
+        <v>8.284532</v>
       </c>
       <c r="O2">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="P2">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="Q2">
-        <v>2.393321481837</v>
+        <v>0.1301361901666667</v>
       </c>
       <c r="R2">
-        <v>21.539893336533</v>
+        <v>1.1712257115</v>
       </c>
       <c r="S2">
-        <v>0.1783749633761068</v>
+        <v>0.02153328619543447</v>
       </c>
       <c r="T2">
-        <v>0.1783749633761067</v>
+        <v>0.02153328619543447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H3">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.872546</v>
       </c>
       <c r="O3">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="P3">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="Q3">
-        <v>0.9364895190126667</v>
+        <v>0.2336229100833333</v>
       </c>
       <c r="R3">
-        <v>8.428405671114</v>
+        <v>2.10260619075</v>
       </c>
       <c r="S3">
-        <v>0.06979684297479981</v>
+        <v>0.03865695605651161</v>
       </c>
       <c r="T3">
-        <v>0.06979684297479978</v>
+        <v>0.03865695605651161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H4">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I4">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J4">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.660104</v>
+        <v>6.495363999999999</v>
       </c>
       <c r="N4">
-        <v>22.980312</v>
+        <v>19.486092</v>
       </c>
       <c r="O4">
-        <v>0.3029241871331601</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="P4">
-        <v>0.30292418713316</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="Q4">
-        <v>1.447016625912</v>
+        <v>0.3060940285</v>
       </c>
       <c r="R4">
-        <v>13.023149633208</v>
+        <v>2.7548462565</v>
       </c>
       <c r="S4">
-        <v>0.1078465804157478</v>
+        <v>0.05064855756083338</v>
       </c>
       <c r="T4">
-        <v>0.1078465804157477</v>
+        <v>0.05064855756083338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.669579</v>
+        <v>2.761510666666667</v>
       </c>
       <c r="N5">
-        <v>38.008737</v>
+        <v>8.284532</v>
       </c>
       <c r="O5">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="P5">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="Q5">
-        <v>2.847610352847</v>
+        <v>0.6206762169364445</v>
       </c>
       <c r="R5">
-        <v>25.62849317562301</v>
+        <v>5.586085952428001</v>
       </c>
       <c r="S5">
-        <v>0.2122332483342913</v>
+        <v>0.1027016281702661</v>
       </c>
       <c r="T5">
-        <v>0.2122332483342913</v>
+        <v>0.102701628170266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I6">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J6">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.872546</v>
       </c>
       <c r="O6">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="P6">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="Q6">
         <v>1.114249493814889</v>
@@ -818,10 +818,10 @@
         <v>10.028245444334</v>
       </c>
       <c r="S6">
-        <v>0.0830453468785656</v>
+        <v>0.1843718739015285</v>
       </c>
       <c r="T6">
-        <v>0.08304534687856559</v>
+        <v>0.1843718739015285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I7">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J7">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.660104</v>
+        <v>6.495363999999999</v>
       </c>
       <c r="N7">
-        <v>22.980312</v>
+        <v>19.486092</v>
       </c>
       <c r="O7">
-        <v>0.3029241871331601</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="P7">
-        <v>0.30292418713316</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="Q7">
-        <v>1.721682421672</v>
+        <v>1.459895847518667</v>
       </c>
       <c r="R7">
-        <v>15.495141795048</v>
+        <v>13.139062627668</v>
       </c>
       <c r="S7">
-        <v>0.1283175040384924</v>
+        <v>0.2415650485839871</v>
       </c>
       <c r="T7">
-        <v>0.1283175040384924</v>
+        <v>0.2415650485839871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H8">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I8">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J8">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.669579</v>
+        <v>2.761510666666667</v>
       </c>
       <c r="N8">
-        <v>38.008737</v>
+        <v>8.284532</v>
       </c>
       <c r="O8">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="P8">
-        <v>0.5010273907370389</v>
+        <v>0.1942757069889504</v>
       </c>
       <c r="Q8">
-        <v>1.481534113137</v>
+        <v>0.4232907985115555</v>
       </c>
       <c r="R8">
-        <v>13.333807018233</v>
+        <v>3.809617186604</v>
       </c>
       <c r="S8">
-        <v>0.1104191790266409</v>
+        <v>0.07004079262324991</v>
       </c>
       <c r="T8">
-        <v>0.1104191790266409</v>
+        <v>0.0700407926232499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H9">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I9">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J9">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>14.872546</v>
       </c>
       <c r="O9">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="P9">
-        <v>0.196048422129801</v>
+        <v>0.3487673641523367</v>
       </c>
       <c r="Q9">
-        <v>0.5797136655237777</v>
+        <v>0.759899517829111</v>
       </c>
       <c r="R9">
-        <v>5.217422989714</v>
+        <v>6.839095660461999</v>
       </c>
       <c r="S9">
-        <v>0.04320623227643559</v>
+        <v>0.1257385341942967</v>
       </c>
       <c r="T9">
-        <v>0.04320623227643559</v>
+        <v>0.1257385341942966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H10">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I10">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J10">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.660104</v>
+        <v>6.495363999999999</v>
       </c>
       <c r="N10">
-        <v>22.980312</v>
+        <v>19.486092</v>
       </c>
       <c r="O10">
-        <v>0.3029241871331601</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="P10">
-        <v>0.30292418713316</v>
+        <v>0.4569569288587129</v>
       </c>
       <c r="Q10">
-        <v>0.895744474712</v>
+        <v>0.9956245497693332</v>
       </c>
       <c r="R10">
-        <v>8.061700272408</v>
+        <v>8.960620947923999</v>
       </c>
       <c r="S10">
-        <v>0.06676010267891995</v>
+        <v>0.1647433227138925</v>
       </c>
       <c r="T10">
-        <v>0.06676010267891994</v>
+        <v>0.1647433227138924</v>
       </c>
     </row>
   </sheetData>
